--- a/data-raw/hartman.tomato.uniformity.xlsx
+++ b/data-raw/hartman.tomato.uniformity.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\x\rpack\agridat\data-raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drop\rpack\agridat\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8727629C-4411-4AD8-B728-A47491E90E2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="0" windowWidth="22020" windowHeight="10932"/>
+    <workbookView xWindow="4720" yWindow="3680" windowWidth="7590" windowHeight="8130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -74,9 +75,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -114,7 +115,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -220,7 +221,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -362,23 +363,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>429</v>
       </c>
@@ -416,7 +417,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>505</v>
       </c>
@@ -454,7 +455,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>404</v>
       </c>
@@ -492,7 +493,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>426</v>
       </c>
@@ -530,7 +531,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>476</v>
       </c>
@@ -568,7 +569,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>548</v>
       </c>
@@ -606,7 +607,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>589</v>
       </c>
@@ -644,7 +645,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>540</v>
       </c>
@@ -682,7 +683,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>571</v>
       </c>
@@ -720,7 +721,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>639</v>
       </c>
@@ -758,7 +759,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>504</v>
       </c>
@@ -796,7 +797,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>510</v>
       </c>
@@ -834,7 +835,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>504</v>
       </c>
@@ -872,7 +873,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>700</v>
       </c>
@@ -910,7 +911,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>725</v>
       </c>
@@ -948,7 +949,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>785</v>
       </c>
@@ -986,7 +987,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>718</v>
       </c>
@@ -1024,7 +1025,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>684</v>
       </c>
@@ -1062,7 +1063,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>826</v>
       </c>
@@ -1100,7 +1101,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>805</v>
       </c>
@@ -1138,7 +1139,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>1004</v>
       </c>
@@ -1176,7 +1177,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>1096</v>
       </c>
@@ -1214,7 +1215,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>947</v>
       </c>
@@ -1252,7 +1253,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>1030</v>
       </c>
@@ -1290,7 +1291,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>1015</v>
       </c>
@@ -1328,7 +1329,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>1019</v>
       </c>
@@ -1366,7 +1367,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>839</v>
       </c>
@@ -1404,7 +1405,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>709</v>
       </c>
@@ -1442,7 +1443,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>713</v>
       </c>
@@ -1480,7 +1481,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>539</v>
       </c>
@@ -1518,7 +1519,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>576</v>
       </c>
@@ -1556,7 +1557,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>483</v>
       </c>
